--- a/shop_list.xlsx
+++ b/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sav\ProgramingProjects\4l60e_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC4D449-1135-43A6-9D59-0431A322E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B9DCA4-EBB1-47CB-9468-53DF5BA2D42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{1B2ED39F-C98B-47A0-806E-21E42B04E4F8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>PROJECT QTY</t>
   </si>
   <si>
-    <t xml:space="preserve">18-5KP58ACT-ND </t>
-  </si>
-  <si>
     <t>LM2903NNS/NOPB-ND</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>478-11031-1-ND</t>
   </si>
   <si>
-    <t>CAP CER 1UF 50V X7R RADIAL</t>
-  </si>
-  <si>
-    <t>399-9886-1-ND</t>
-  </si>
-  <si>
     <t>CAP ALUM 1000UF 20% 50V RADIAL</t>
   </si>
   <si>
@@ -248,12 +239,6 @@
     <t>Low‑side MOSFET STP36NF06L</t>
   </si>
   <si>
-    <t>TVS DIODE 58VWM 93.6VC P600</t>
-  </si>
-  <si>
-    <t>High-energy 12V TVS diode for load dump 5KP58A</t>
-  </si>
-  <si>
     <t>TVS diodes SSA/SSB/TCC 5KP36CA</t>
   </si>
   <si>
@@ -267,6 +252,33 @@
   </si>
   <si>
     <t>DIODE STANDARD 50V 1A DO204AC</t>
+  </si>
+  <si>
+    <t>High-energy 12V TVS diode for load dump P6KE18A</t>
+  </si>
+  <si>
+    <t>TVS DIODE 15.3VWM 25.2VC DO15</t>
+  </si>
+  <si>
+    <t>P6KE18AFSCT-ND</t>
+  </si>
+  <si>
+    <t>22 µF ±10% 50V Ceramic Capacitor X7R Radial</t>
+  </si>
+  <si>
+    <t>565-KTD500B226K76A0T00CT-ND</t>
+  </si>
+  <si>
+    <t>Capacitor power supply input</t>
+  </si>
+  <si>
+    <t>Capacitor power supply output</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 16V X7R RADIAL</t>
+  </si>
+  <si>
+    <t>445-FK20X7R1C226M-ND</t>
   </si>
 </sst>
 </file>
@@ -412,26 +424,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF393939"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF444444"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +622,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,13 +793,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,737 +1175,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AFD706-D351-4BCD-BF11-85338B485E47}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>60.65</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <f>G2*F2</f>
         <v>60.65</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>SUM(H:H)</f>
-        <v>195.93600000000009</v>
+        <v>198.82600000000008</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>32.75</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H19" si="0">G3*F3</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H20" si="0">G3*F3</f>
         <v>32.75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>11.7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>3.3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>2.83</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>11.32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.128</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.62</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>2.02</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>7.75</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <v>7.86</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>7.86</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>3.49</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>10.47</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>4.8360000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.55</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>3.48</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>3.48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.43</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.183</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ref="H21:H25" si="1">G21*F21</f>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20">
+      <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="2">
         <v>0.183</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:H24" si="1">G20*F20</f>
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1">
         <v>10</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="2">
         <v>0.183</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F23">
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="2">
         <v>0.183</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="2">
         <v>0.126</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>1.26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1">
         <v>20</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="2">
         <v>0.183</v>
       </c>
-      <c r="H25" s="1">
-        <f>G25*F25</f>
+      <c r="H26" s="2">
+        <f>G26*F26</f>
         <v>3.66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26">
+      <c r="F27" s="1">
         <v>10</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="2">
         <v>0.183</v>
       </c>
-      <c r="H26" s="1">
-        <f>G26*F26</f>
+      <c r="H27" s="2">
+        <f>G27*F27</f>
         <v>1.83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="1"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
